--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T14:02:34+00:00</t>
+    <t>2022-01-31T21:57:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T21:57:51+00:00</t>
+    <t>2022-02-02T08:04:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T08:04:13+00:00</t>
+    <t>2022-02-02T08:44:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T08:44:19+00:00</t>
+    <t>2022-02-02T15:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-02T15:40:28+00:00</t>
+    <t>2022-02-03T08:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T08:35:41+00:00</t>
+    <t>2022-02-03T09:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -53,7 +53,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:16:30+00:00</t>
+    <t>2022-02-04T15:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T15:35:42+00:00</t>
+    <t>2022-02-04T16:01:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-04T16:01:40+00:00</t>
+    <t>2022-02-10T08:30:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0</t>
+    <t>0.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T08:30:59+00:00</t>
+    <t>2022-02-10T08:53:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T08:53:39+00:00</t>
+    <t>2022-04-27T12:37:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.1</t>
+    <t>0.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-27T12:37:13+00:00</t>
+    <t>2022-05-16T12:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T12:54:37+00:00</t>
+    <t>2022-05-16T13:02:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.2</t>
+    <t>0.4.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T13:02:52+00:00</t>
+    <t>2022-09-09T13:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -29,7 +29,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.578.1.12.4.1.1.8351</t>
+    <t>id: urn:oid:2.16.578.1.12.4.1.1.8351</t>
   </si>
   <si>
     <t>Version</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T13:02:22+00:00</t>
+    <t>2023-08-17T10:02:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -235,10 +235,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.3</t>
+    <t>0.4.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T10:02:16+00:00</t>
+    <t>2023-08-17T10:17:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T10:17:13+00:00</t>
+    <t>2023-08-17T10:25:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T10:25:54+00:00</t>
+    <t>2023-09-12T18:30:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -23,13 +23,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehelse.no/fhir/CodeSystem/no-kodeverk-8351</t>
+    <t>http://helsedir.no/fhir/CodeSystem/no-kodeverk-8351</t>
   </si>
   <si>
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:2.16.578.1.12.4.1.1.8351</t>
+    <t>OID:2.16.578.1.12.4.1.1.8351</t>
   </si>
   <si>
     <t>Version</t>
@@ -62,13 +62,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-12T18:30:30+00:00</t>
+    <t>2024-06-03T09:03:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>Direktoratet for e-helse</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -331,85 +328,83 @@
       <c r="A10" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2"/>
     </row>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.4</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T09:03:40+00:00</t>
+    <t>2024-06-04T05:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.0</t>
+    <t>0.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T05:31:20+00:00</t>
+    <t>2024-06-06T07:46:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -35,7 +35,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-06T07:46:07+00:00</t>
+    <t>2024-12-17T09:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T09:50:02+00:00</t>
+    <t>2024-12-17T09:56:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
+++ b/currentbuild/CodeSystem-no-kodeverk-8351.codesystem.xlsx
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T09:56:26+00:00</t>
+    <t>2025-11-09T13:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
